--- a/Навигационные терминалы/Навигационные терминалы.xlsx
+++ b/Навигационные терминалы/Навигационные терминалы.xlsx
@@ -722,7 +722,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
@@ -732,8 +732,8 @@
     <col min="3" max="3" width="14.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -753,14 +753,14 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -780,13 +780,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -806,13 +806,13 @@
         <v>41</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -832,13 +832,13 @@
         <v>42</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -858,13 +858,13 @@
         <v>43</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -884,13 +884,13 @@
         <v>45</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -910,13 +910,13 @@
         <v>46</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -936,13 +936,13 @@
         <v>47</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -962,13 +962,13 @@
         <v>48</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -988,13 +988,13 @@
         <v>49</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -1014,13 +1014,13 @@
         <v>50</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">

--- a/Навигационные терминалы/Навигационные терминалы.xlsx
+++ b/Навигационные терминалы/Навигационные терминалы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="140">
   <si>
     <t>ФИО водителей</t>
   </si>
@@ -295,6 +295,150 @@
   </si>
   <si>
     <t>863517041696807</t>
+  </si>
+  <si>
+    <t>82F5E70C-DB137E7E</t>
+  </si>
+  <si>
+    <t>863517040693409</t>
+  </si>
+  <si>
+    <t>863517041693408</t>
+  </si>
+  <si>
+    <t>+375 (44)7937760</t>
+  </si>
+  <si>
+    <t>4C83C32A-BB619A33</t>
+  </si>
+  <si>
+    <t>863517040693250</t>
+  </si>
+  <si>
+    <t>863517041693259</t>
+  </si>
+  <si>
+    <t>+375(44)7937729</t>
+  </si>
+  <si>
+    <t>A5E0661F-656895AA</t>
+  </si>
+  <si>
+    <t>863517040693334</t>
+  </si>
+  <si>
+    <t>863517041693333</t>
+  </si>
+  <si>
+    <t>+375(44)7937695</t>
+  </si>
+  <si>
+    <t>E2326EE9-5D4A3E73</t>
+  </si>
+  <si>
+    <t>863517040693359</t>
+  </si>
+  <si>
+    <t>863517041693358</t>
+  </si>
+  <si>
+    <t>+357(44)7937780</t>
+  </si>
+  <si>
+    <t>3232BF97-7723CD40</t>
+  </si>
+  <si>
+    <t>863517040693284</t>
+  </si>
+  <si>
+    <t>863517041693283</t>
+  </si>
+  <si>
+    <t>+375(44)7937752</t>
+  </si>
+  <si>
+    <t>+375(44)7937732</t>
+  </si>
+  <si>
+    <t>A28DA206-EAF42A57</t>
+  </si>
+  <si>
+    <t>863517040693219</t>
+  </si>
+  <si>
+    <t>863517041693218</t>
+  </si>
+  <si>
+    <t>F5F2D79A-75B4D79B</t>
+  </si>
+  <si>
+    <t>863517040693060</t>
+  </si>
+  <si>
+    <t>863517041693069</t>
+  </si>
+  <si>
+    <t>+375(44)7937753</t>
+  </si>
+  <si>
+    <t>45358F01-4DD6BBB9</t>
+  </si>
+  <si>
+    <t>863517040693078</t>
+  </si>
+  <si>
+    <t>863517041693077</t>
+  </si>
+  <si>
+    <t>+375(44)7937739</t>
+  </si>
+  <si>
+    <t>яскевич С.Е.</t>
+  </si>
+  <si>
+    <t>маз -103486</t>
+  </si>
+  <si>
+    <t>AC 7724-5</t>
+  </si>
+  <si>
+    <t>D2E75689-FADB5607</t>
+  </si>
+  <si>
+    <t>863517040693375</t>
+  </si>
+  <si>
+    <t>863517041693374</t>
+  </si>
+  <si>
+    <t>+375(44)7937716</t>
+  </si>
+  <si>
+    <t>AC 7725-5</t>
+  </si>
+  <si>
+    <t>3B84F3BC-44E64DB5</t>
+  </si>
+  <si>
+    <t>863517040695560</t>
+  </si>
+  <si>
+    <t>863517041695569</t>
+  </si>
+  <si>
+    <t>+375(44)7937731</t>
+  </si>
+  <si>
+    <t>АС 7742-5</t>
+  </si>
+  <si>
+    <t>D58A9290-2D9E24AB</t>
+  </si>
+  <si>
+    <t>863517040693417</t>
+  </si>
+  <si>
+    <t>863517041693416</t>
   </si>
 </sst>
 </file>
@@ -719,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
@@ -1036,10 +1180,18 @@
       <c r="D12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="E12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
@@ -1054,10 +1206,18 @@
       <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="E13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
@@ -1072,10 +1232,18 @@
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
@@ -1090,10 +1258,18 @@
       <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="E15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
@@ -1108,10 +1284,18 @@
       <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="E16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
@@ -1126,10 +1310,18 @@
       <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="E17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
@@ -1144,10 +1336,18 @@
       <c r="D18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="E18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
@@ -1162,10 +1362,93 @@
       <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="E19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Навигационные терминалы/Навигационные терминалы.xlsx
+++ b/Навигационные терминалы/Навигационные терминалы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
   <si>
     <t>ФИО водителей</t>
   </si>
@@ -306,9 +306,6 @@
     <t>863517041693408</t>
   </si>
   <si>
-    <t>+375 (44)7937760</t>
-  </si>
-  <si>
     <t>4C83C32A-BB619A33</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
     <t>863517041693259</t>
   </si>
   <si>
-    <t>+375(44)7937729</t>
-  </si>
-  <si>
     <t>A5E0661F-656895AA</t>
   </si>
   <si>
@@ -330,9 +324,6 @@
     <t>863517041693333</t>
   </si>
   <si>
-    <t>+375(44)7937695</t>
-  </si>
-  <si>
     <t>E2326EE9-5D4A3E73</t>
   </si>
   <si>
@@ -342,9 +333,6 @@
     <t>863517041693358</t>
   </si>
   <si>
-    <t>+357(44)7937780</t>
-  </si>
-  <si>
     <t>3232BF97-7723CD40</t>
   </si>
   <si>
@@ -354,12 +342,6 @@
     <t>863517041693283</t>
   </si>
   <si>
-    <t>+375(44)7937752</t>
-  </si>
-  <si>
-    <t>+375(44)7937732</t>
-  </si>
-  <si>
     <t>A28DA206-EAF42A57</t>
   </si>
   <si>
@@ -378,9 +360,6 @@
     <t>863517041693069</t>
   </si>
   <si>
-    <t>+375(44)7937753</t>
-  </si>
-  <si>
     <t>45358F01-4DD6BBB9</t>
   </si>
   <si>
@@ -390,15 +369,6 @@
     <t>863517041693077</t>
   </si>
   <si>
-    <t>+375(44)7937739</t>
-  </si>
-  <si>
-    <t>яскевич С.Е.</t>
-  </si>
-  <si>
-    <t>маз -103486</t>
-  </si>
-  <si>
     <t>AC 7724-5</t>
   </si>
   <si>
@@ -411,9 +381,6 @@
     <t>863517041693374</t>
   </si>
   <si>
-    <t>+375(44)7937716</t>
-  </si>
-  <si>
     <t>AC 7725-5</t>
   </si>
   <si>
@@ -426,9 +393,6 @@
     <t>863517041695569</t>
   </si>
   <si>
-    <t>+375(44)7937731</t>
-  </si>
-  <si>
     <t>АС 7742-5</t>
   </si>
   <si>
@@ -439,6 +403,36 @@
   </si>
   <si>
     <t>863517041693416</t>
+  </si>
+  <si>
+    <t>+375 (44) 7937760</t>
+  </si>
+  <si>
+    <t>+375 (44) 7937729</t>
+  </si>
+  <si>
+    <t>+375 (44) 7937695</t>
+  </si>
+  <si>
+    <t>+357 (44) 7937780</t>
+  </si>
+  <si>
+    <t>+375 (44) 7937752</t>
+  </si>
+  <si>
+    <t>+375 (44) 7937732</t>
+  </si>
+  <si>
+    <t>+375 (44) 7937753</t>
+  </si>
+  <si>
+    <t>+375 (44) 7937739</t>
+  </si>
+  <si>
+    <t>+375 (44) 7937716</t>
+  </si>
+  <si>
+    <t>+375 (44) 7937731</t>
   </si>
 </sst>
 </file>
@@ -865,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1184,7 @@
         <v>94</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -1207,16 +1201,16 @@
         <v>28</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="H13" s="9" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -1233,16 +1227,16 @@
         <v>30</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -1259,16 +1253,16 @@
         <v>32</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -1285,16 +1279,16 @@
         <v>34</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -1311,16 +1305,16 @@
         <v>36</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -1337,16 +1331,16 @@
         <v>38</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
@@ -1363,91 +1357,92 @@
         <v>40</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="H21" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.3" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="G22" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="H22" s="9" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
